--- a/data/news_and_keyword/kosdaq/나노씨엠에스.xlsx
+++ b/data/news_and_keyword/kosdaq/나노씨엠에스.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,329 +468,329 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-05-10 13:58:00</t>
+          <t>2024-07-29 14:18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AI 데이터센터 전력 효율화 필수 '전력반도체'…전력...</t>
+          <t>전력효율화 필수품…'연간 180톤 규모' 전력반도체 필...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AI', '데이터센터', '전력', '효율화', '필수']</t>
+          <t>['전력효율화', '180톤', '규모', '전력반도체', '필']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.796163069544365</v>
+        <v>-400</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.876099120703437</v>
+        <v>-400</v>
       </c>
       <c r="F2" t="n">
-        <v>-18.06554756195044</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-09-25 16:16:00</t>
+          <t>2024-05-10 13:58:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>상승 '날개' 달았나?...4거래일 연속 상승세</t>
+          <t>AI 데이터센터 전력 효율화 필수 '전력반도체'…전력...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['상승', '달았나', '4거래일', '연속', '상승세']</t>
+          <t>['AI', '데이터센터', '전력', '효율화', '필수']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-9.668943772990016</v>
+        <v>4.796163069544365</v>
       </c>
       <c r="E3" t="n">
-        <v>-22.96374146085128</v>
+        <v>-4.876099120703437</v>
       </c>
       <c r="F3" t="n">
-        <v>-26.01156069364162</v>
+        <v>-18.06554756195044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-07-12 13:49:00</t>
+          <t>2023-09-25 16:16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中갈륨 수출 통제..전기차 실리콘카바이드 대체제 부각...</t>
+          <t>상승 '날개' 달았나?...4거래일 연속 상승세</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['中갈륨', '수출', '통제', '전기차', '실리콘카바이드']</t>
+          <t>['상승', '달았나', '4거래일', '연속', '상승세']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-3.41055341055341</v>
+        <v>-9.668943772990016</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.657657657657657</v>
+        <v>-22.96374146085128</v>
       </c>
       <c r="F4" t="n">
-        <v>18.98326898326898</v>
+        <v>-26.01156069364162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-03-23 11:46:00</t>
+          <t>2023-07-12 13:49:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>주가 강세···UAE병원에 바이러스 사멸 램프 공급 계...</t>
+          <t>中갈륨 수출 통제..전기차 실리콘카바이드 대체제 부각...</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['주가', '바이러스', '사멸', '램프', '공급']</t>
+          <t>['中갈륨', '수출', '통제', '전기차', '실리콘카바이드']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-2.923976608187134</v>
+        <v>-3.41055341055341</v>
       </c>
       <c r="E5" t="n">
-        <v>1.559454191033138</v>
+        <v>-7.657657657657657</v>
       </c>
       <c r="F5" t="n">
-        <v>6.367771280051981</v>
+        <v>18.98326898326898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-03-10 14:54:00</t>
+          <t>2023-03-23 11:46:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>주가 하락···美인증기관으로부터 병원균 시험성적 ...</t>
+          <t>주가 강세···UAE병원에 바이러스 사멸 램프 공급 계...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['주가', '병원균', '시험성적']</t>
+          <t>['주가', '바이러스', '사멸', '램프', '공급']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-3.179364127174565</v>
+        <v>-2.923976608187134</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.23875224955009</v>
+        <v>1.559454191033138</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.418716256748651</v>
+        <v>6.367771280051981</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-22 09:20:00</t>
+          <t>2023-03-10 14:54:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>바이러스 사멸램프 미국 시장 확대 소식에 7%↑</t>
+          <t>주가 하락···美인증기관으로부터 병원균 시험성적 ...</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['바이러스', '사멸램프', '미국', '시장', '확대']</t>
+          <t>['주가', '병원균', '시험성적']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.59433962264151</v>
+        <v>-3.179364127174565</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.59433962264151</v>
+        <v>-6.23875224955009</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9433962264150944</v>
+        <v>-6.418716256748651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-11 13:42:00</t>
+          <t>2022-11-22 09:20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>주가 급등 '바이러스 사멸램프 성능 소개'</t>
+          <t>바이러스 사멸램프 미국 시장 확대 소식에 7%↑</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['주가', '급등', '사멸램프', '성능', '소개']</t>
+          <t>['바이러스', '사멸램프', '미국', '시장', '확대']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-8.314087759815243</v>
+        <v>2.59433962264151</v>
       </c>
       <c r="E8" t="n">
-        <v>7.852193995381063</v>
+        <v>-2.59433962264151</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.926096997690531</v>
+        <v>0.9433962264150944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-09-06 10:09:00</t>
+          <t>2022-10-11 13:42:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>'전기차 핵심' SiC 전력 반도체 시장 진출 소식에 '상...</t>
+          <t>주가 급등 '바이러스 사멸램프 성능 소개'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['핵심', 'SiC', '전력', '반도체', '시장']</t>
+          <t>['주가', '급등', '사멸램프', '성능', '소개']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-12.89256198347107</v>
+        <v>-8.314087759815243</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.85123966942149</v>
+        <v>7.852193995381063</v>
       </c>
       <c r="F9" t="n">
-        <v>-37.1900826446281</v>
+        <v>-3.926096997690531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-08-17 12:52:00</t>
+          <t>2022-09-06 10:09:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한국조폐공사와 공급 계약 소식에 '관심'...주가는?</t>
+          <t>'전기차 핵심' SiC 전력 반도체 시장 진출 소식에 '상...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['한국조폐공사와', '공급', '계약', '소식에', '주가는']</t>
+          <t>['핵심', 'SiC', '전력', '반도체', '시장']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1.311475409836065</v>
+        <v>-12.89256198347107</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.180327868852459</v>
+        <v>-17.85123966942149</v>
       </c>
       <c r="F10" t="n">
-        <v>-23.27868852459016</v>
+        <v>-37.1900826446281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-07-27 11:00:00</t>
+          <t>2022-08-17 12:52:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>투자주의종목 지정 해제에 주가 상승률 10%↑</t>
+          <t>한국조폐공사와 공급 계약 소식에 '관심'...주가는?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['투자주의종목', '지정', '해제에', '주가', '상승률']</t>
+          <t>['한국조폐공사와', '공급', '계약', '소식에', '주가는']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.55440414507772</v>
+        <v>-1.311475409836065</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.76683937823834</v>
+        <v>-9.180327868852459</v>
       </c>
       <c r="F11" t="n">
-        <v>-27.84974093264249</v>
+        <v>-23.27868852459016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-07-14 10:00:00</t>
+          <t>2022-07-27 11:00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>101억 투자로 공주 공장 준공...생산 능력 대폭 향상...</t>
+          <t>투자주의종목 지정 해제에 주가 상승률 10%↑</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['101억', '투자로', '공주', '공장', '준공']</t>
+          <t>['투자주의종목', '지정', '해제에', '주가', '상승률']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-3.240058910162003</v>
+        <v>1.55440414507772</v>
       </c>
       <c r="E12" t="n">
-        <v>6.62739322533137</v>
+        <v>-14.76683937823834</v>
       </c>
       <c r="F12" t="n">
-        <v>-9.278350515463918</v>
+        <v>-27.84974093264249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-07-13 09:28:00</t>
+          <t>2022-07-14 10:00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2거래일 주가 상승세…코로나19 재유행 관련?</t>
+          <t>101억 투자로 공주 공장 준공...생산 능력 대폭 향상...</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['2거래일', '주가', '재유행', '관련']</t>
+          <t>['101억', '투자로', '공주', '공장', '준공']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.343283582089552</v>
+        <v>-3.240058910162003</v>
       </c>
       <c r="E13" t="n">
-        <v>4.626865671641791</v>
+        <v>6.62739322533137</v>
       </c>
       <c r="F13" t="n">
-        <v>-8.208955223880597</v>
+        <v>-9.278350515463918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-07-13 09:09:00</t>
+          <t>2022-07-13 09:28:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>코로나19 재확산 국면… 바이러스 사멸 램프 부각</t>
+          <t>2거래일 주가 상승세…코로나19 재유행 관련?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['코로나19', '재확산', '바이러스', '사멸', '램프']</t>
+          <t>['2거래일', '주가', '재유행', '관련']</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -806,199 +806,199 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-07-12 11:00:00</t>
+          <t>2022-07-13 09:09:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>램프로 공기중 부유바이러스 사멸 성능 확인...주가는...</t>
+          <t>코로나19 재확산 국면… 바이러스 사멸 램프 부각</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['램프로', '공기중', '부유바이러스', '사멸', '성능']</t>
+          <t>['코로나19', '재확산', '바이러스', '사멸', '램프']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1.03397341211226</v>
+        <v>1.343283582089552</v>
       </c>
       <c r="E15" t="n">
-        <v>2.954209748892171</v>
+        <v>4.626865671641791</v>
       </c>
       <c r="F15" t="n">
-        <v>-7.090103397341212</v>
+        <v>-8.208955223880597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-07-08 10:40:00</t>
+          <t>2022-07-12 11:00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>주가, 장중 폭발로 거래량 회복?</t>
+          <t>램프로 공기중 부유바이러스 사멸 성능 확인...주가는...</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['주가', '장중', '폭발로', '거래량', '회복']</t>
+          <t>['램프로', '공기중', '부유바이러스', '사멸', '성능']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-8.115942028985506</v>
+        <v>-1.03397341211226</v>
       </c>
       <c r="E16" t="n">
-        <v>-4.782608695652174</v>
+        <v>2.954209748892171</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.347826086956522</v>
+        <v>-7.090103397341212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-07-06 10:44:00</t>
+          <t>2022-07-08 10:40:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>사멸램프 뭐길래…주가 상승세인 이유</t>
+          <t>주가, 장중 폭발로 거래량 회복?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['사멸램프', '상승세인', '이유']</t>
+          <t>['주가', '장중', '폭발로', '거래량', '회복']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.8771929824561403</v>
+        <v>-8.115942028985506</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.046783625730994</v>
+        <v>-4.782608695652174</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.801169590643275</v>
+        <v>-4.347826086956522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-07-05 11:42:00</t>
+          <t>2022-07-06 10:44:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>주가 다시 기지개 켜나..'관심'</t>
+          <t>사멸램프 뭐길래…주가 상승세인 이유</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['주가', '다시', '기지개', '켜나']</t>
+          <t>['사멸램프', '상승세인', '이유']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19.58041958041958</v>
+        <v>-0.8771929824561403</v>
       </c>
       <c r="E18" t="n">
-        <v>18.35664335664336</v>
+        <v>-2.046783625730994</v>
       </c>
       <c r="F18" t="n">
-        <v>18.53146853146853</v>
+        <v>-3.801169590643275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-05-31 14:10:00</t>
+          <t>2022-07-05 11:42:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>바이러스 사멸램프 美 공급 확대...주가는?</t>
+          <t>주가 다시 기지개 켜나..'관심'</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['바이러스', '사멸램프', '美', '공급', '확대']</t>
+          <t>['주가', '다시', '기지개', '켜나']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.5625</v>
+        <v>19.58041958041958</v>
       </c>
       <c r="E19" t="n">
-        <v>-10.9375</v>
+        <v>18.35664335664336</v>
       </c>
       <c r="F19" t="n">
-        <v>-42.47159090909091</v>
+        <v>18.53146853146853</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-05-04 10:16:00</t>
+          <t>2022-05-31 14:10:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>해외 진출 박차에 주가 10%대 상승</t>
+          <t>바이러스 사멸램프 美 공급 확대...주가는?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['해외', '진출', '박차에', '주가', '10']</t>
+          <t>['바이러스', '사멸램프', '美', '공급', '확대']</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1.5625</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.833333333333333</v>
+        <v>-10.9375</v>
       </c>
       <c r="F20" t="n">
-        <v>13.83333333333333</v>
+        <v>-42.47159090909091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-05-02 13:51:00</t>
+          <t>2022-05-04 10:16:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코로나19 사멸 램프 CE 인증에 ↑</t>
+          <t>해외 진출 박차에 주가 10%대 상승</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['코로나19', '사멸', '램프', 'CE', '인증에']</t>
+          <t>['해외', '진출', '박차에', '주가', '10']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-6.272401433691756</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>11.11111111111111</v>
+        <v>-2.833333333333333</v>
       </c>
       <c r="F21" t="n">
-        <v>26.16487455197133</v>
+        <v>13.83333333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022-05-02 10:56:00</t>
+          <t>2022-05-02 13:51:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>코로나19 사멸램프 미국 유럽 인증소식에 강세</t>
+          <t>코로나19 사멸 램프 CE 인증에 ↑</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['코로나19', '사멸램프', '미국', '유럽', '인증소식에']</t>
+          <t>['코로나19', '사멸', '램프', 'CE', '인증에']</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1014,147 +1014,147 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022-03-02 11:50:00</t>
+          <t>2022-05-02 10:56:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코로나19 사멸램프 이슈로 주가 '강세'</t>
+          <t>코로나19 사멸램프 미국 유럽 인증소식에 강세</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['코로나19', '사멸램프', '이슈로', '주가']</t>
+          <t>['코로나19', '사멸램프', '미국', '유럽', '인증소식에']</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.8080808080808081</v>
+        <v>-6.272401433691756</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.454545454545454</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="F23" t="n">
-        <v>-22.12121212121212</v>
+        <v>26.16487455197133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022-02-28 13:46:00</t>
+          <t>2022-03-02 11:50:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>의무보유등록 해제 소식 후 주가는?</t>
+          <t>코로나19 사멸램프 이슈로 주가 '강세'</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['의무보유등록', '해제', '소식', '후', '주가는']</t>
+          <t>['코로나19', '사멸램프', '이슈로', '주가']</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5.319148936170213</v>
+        <v>-0.8080808080808081</v>
       </c>
       <c r="E24" t="n">
-        <v>1.914893617021276</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="F24" t="n">
-        <v>-17.97872340425532</v>
+        <v>-22.12121212121212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022-02-10 14:28:00</t>
+          <t>2022-02-28 13:46:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>오후 주가 급등..갑자기 무슨 일?</t>
+          <t>의무보유등록 해제 소식 후 주가는?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['오후', '주가', '급등', '갑자기', '무슨']</t>
+          <t>['의무보유등록', '해제', '소식', '후', '주가는']</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-5.414012738853503</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="E25" t="n">
-        <v>-16.40127388535032</v>
+        <v>1.914893617021276</v>
       </c>
       <c r="F25" t="n">
-        <v>-29.45859872611465</v>
+        <v>-17.97872340425532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022-02-08 22:40:00</t>
+          <t>2022-02-10 14:28:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>소폭 하락 '코로나 사멸램프 개발에도 확산 계속'</t>
+          <t>오후 주가 급등..갑자기 무슨 일?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['소폭', '하락', '사멸램프', '개발에도', '확산']</t>
+          <t>['오후', '주가', '급등', '갑자기', '무슨']</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-1.043478260869565</v>
+        <v>-5.414012738853503</v>
       </c>
       <c r="E26" t="n">
-        <v>-12</v>
+        <v>-16.40127388535032</v>
       </c>
       <c r="F26" t="n">
-        <v>-18.60869565217391</v>
+        <v>-29.45859872611465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022-01-26 13:08:00</t>
+          <t>2022-02-08 22:40:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12억 규모 공급계약 체결...주가 관심↑</t>
+          <t>소폭 하락 '코로나 사멸램프 개발에도 확산 계속'</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['12억', '규모', '공급계약', '체결', '주가']</t>
+          <t>['소폭', '하락', '사멸램프', '개발에도', '확산']</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-7.608695652173914</v>
+        <v>-1.043478260869565</v>
       </c>
       <c r="E27" t="n">
-        <v>-8.850931677018634</v>
+        <v>-12</v>
       </c>
       <c r="F27" t="n">
-        <v>-27.01863354037267</v>
+        <v>-18.60869565217391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022-01-26 09:16:00</t>
+          <t>2022-01-26 13:08:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한국조폐공사에 12.6억 보안안료 공급에↑</t>
+          <t>12억 규모 공급계약 체결...주가 관심↑</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['한국조폐공사에', '보안안료']</t>
+          <t>['12억', '규모', '공급계약', '체결', '주가']</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1170,43 +1170,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022-01-18 09:22:00</t>
+          <t>2022-01-26 09:16:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>코로나 차단 제품 소식에 주가 관심↑</t>
+          <t>한국조폐공사에 12.6억 보안안료 공급에↑</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['코로나', '차단', '제품', '소식에', '주가']</t>
+          <t>['한국조폐공사에', '보안안료']</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-3.746770025839794</v>
+        <v>-7.608695652173914</v>
       </c>
       <c r="E29" t="n">
-        <v>-16.92506459948321</v>
+        <v>-8.850931677018634</v>
       </c>
       <c r="F29" t="n">
-        <v>-31.52454780361757</v>
+        <v>-27.01863354037267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022-01-18 06:20:00</t>
+          <t>2022-01-18 09:22:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>코스닥시장 시간외거래 상한가 '급등'</t>
+          <t>코로나 차단 제품 소식에 주가 관심↑</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['코스닥시장', '시간외거래', '상한가']</t>
+          <t>['코로나', '차단', '제품', '소식에', '주가']</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1222,43 +1222,43 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022-01-10 15:04:00</t>
+          <t>2022-01-18 06:20:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>세계 최초 '코로나19 사멸램프' 계약에 주가↑</t>
+          <t>코스닥시장 시간외거래 상한가 '급등'</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['세계', '최초', '사멸램프', '계약에']</t>
+          <t>['코스닥시장', '시간외거래', '상한가']</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-8.47651775486827</v>
+        <v>-3.746770025839794</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.101947308132875</v>
+        <v>-16.92506459948321</v>
       </c>
       <c r="F31" t="n">
-        <v>-28.06414662084765</v>
+        <v>-31.52454780361757</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-01-10 14:30:00</t>
+          <t>2022-01-10 15:04:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>세계 최초 개발 코로나 사멸램프 수출 소식에 상승세</t>
+          <t>세계 최초 '코로나19 사멸램프' 계약에 주가↑</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['세계', '최초', '개발', '코로나', '사멸램프']</t>
+          <t>['세계', '최초', '사멸램프', '계약에']</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1274,173 +1274,173 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022-01-03 10:40:00</t>
+          <t>2022-01-10 14:30:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>코로나 사멸램프 해외 인증에 강세</t>
+          <t>세계 최초 개발 코로나 사멸램프 수출 소식에 상승세</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['코로나', '사멸램프', '해외', '인증에', '강세']</t>
+          <t>['세계', '최초', '개발', '코로나', '사멸램프']</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-5.10783200908059</v>
+        <v>-8.47651775486827</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.9080590238365494</v>
+        <v>-7.101947308132875</v>
       </c>
       <c r="F33" t="n">
-        <v>-30.76049943246311</v>
+        <v>-28.06414662084765</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021-12-28 19:04:00</t>
+          <t>2022-01-03 10:40:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>소폭 하락 '코로나 사멸램프 출시 언제?'</t>
+          <t>코로나 사멸램프 해외 인증에 강세</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['소폭', '하락', '사멸램프', '출시', '언제']</t>
+          <t>['코로나', '사멸램프', '해외', '인증에', '강세']</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.335766423357664</v>
+        <v>-5.10783200908059</v>
       </c>
       <c r="E34" t="n">
-        <v>21.31386861313869</v>
+        <v>-0.9080590238365494</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.985401459854015</v>
+        <v>-30.76049943246311</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021-12-24 10:40:00</t>
+          <t>2021-12-28 19:04:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>주가 18% 상승세, 코로나 사멸램프 기대감</t>
+          <t>소폭 하락 '코로나 사멸램프 출시 언제?'</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['주가', '18', '상승세', '코로나', '사멸램프']</t>
+          <t>['소폭', '하락', '사멸램프', '출시', '언제']</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-8.179419525065963</v>
+        <v>2.335766423357664</v>
       </c>
       <c r="E35" t="n">
-        <v>16.22691292875989</v>
+        <v>21.31386861313869</v>
       </c>
       <c r="F35" t="n">
-        <v>-11.08179419525066</v>
+        <v>-5.985401459854015</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021-11-29 09:14:00</t>
+          <t>2021-12-24 10:40:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>코로나 사멸램프 양산 기대감에 상승세</t>
+          <t>주가 18% 상승세, 코로나 사멸램프 기대감</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['코로나', '사멸램프', '양산', '기대감에', '상승세']</t>
+          <t>['주가', '18', '상승세', '코로나', '사멸램프']</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.036269430051814</v>
+        <v>-8.179419525065963</v>
       </c>
       <c r="E36" t="n">
-        <v>-12.33160621761658</v>
+        <v>16.22691292875989</v>
       </c>
       <c r="F36" t="n">
-        <v>-27.87564766839378</v>
+        <v>-11.08179419525066</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021-11-24 11:54:00</t>
+          <t>2021-11-29 09:14:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WHO 경고에 주가 상승</t>
+          <t>코로나 사멸램프 양산 기대감에 상승세</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['WHO', '경고에', '주가', '상승']</t>
+          <t>['코로나', '사멸램프', '양산', '기대감에', '상승세']</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-2.307692307692308</v>
+        <v>1.036269430051814</v>
       </c>
       <c r="E37" t="n">
-        <v>21.15384615384615</v>
+        <v>-12.33160621761658</v>
       </c>
       <c r="F37" t="n">
-        <v>-6.923076923076923</v>
+        <v>-27.87564766839378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-11-22 10:32:00</t>
+          <t>2021-11-24 11:54:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29% 급등 '인체 무해 평면 램프 최초 개발'</t>
+          <t>WHO 경고에 주가 상승</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['29', '급등', '무해', '평면', '램프']</t>
+          <t>['WHO', '경고에', '주가', '상승']</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-14.63414634146341</v>
+        <v>-2.307692307692308</v>
       </c>
       <c r="E38" t="n">
-        <v>17.68292682926829</v>
+        <v>21.15384615384615</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.219512195121951</v>
+        <v>-6.923076923076923</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-11-22 09:44:00</t>
+          <t>2021-11-22 10:32:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21% 급등 '코로나 확진자 급등에 박멸램프 관심'</t>
+          <t>29% 급등 '인체 무해 평면 램프 최초 개발'</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['21', '급등', '확진자', '급등에', '박멸램프']</t>
+          <t>['29', '급등', '무해', '평면', '램프']</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1456,69 +1456,69 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-11-20 12:26:00</t>
+          <t>2021-11-22 09:44:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>이달부터 평판 램프 양산 시작에도 하락세</t>
+          <t>21% 급등 '코로나 확진자 급등에 박멸램프 관심'</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['이달부터', '평판', '램프', '양산', '시작에도']</t>
+          <t>['21', '급등', '확진자', '급등에', '박멸램프']</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-400</v>
+        <v>-14.63414634146341</v>
       </c>
       <c r="E40" t="n">
-        <v>-400</v>
+        <v>17.68292682926829</v>
       </c>
       <c r="F40" t="n">
-        <v>-400</v>
+        <v>-6.219512195121951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-11-04 14:46:00</t>
+          <t>2021-11-20 12:26:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>주가 오후 중 급등 배경은?</t>
+          <t>이달부터 평판 램프 양산 시작에도 하락세</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['주가', '오후', '중', '급등', '배경은']</t>
+          <t>['이달부터', '평판', '램프', '양산', '시작에도']</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-11.56462585034014</v>
+        <v>-400</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.91383219954649</v>
+        <v>-400</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.215419501133787</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-11-04 14:38:00</t>
+          <t>2021-11-04 14:46:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>장중 주가 '폭등세'...왜?</t>
+          <t>주가 오후 중 급등 배경은?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['장중', '주가', '왜']</t>
+          <t>['주가', '오후', '중', '급등', '배경은']</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1534,69 +1534,69 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-10-25 09:48:00</t>
+          <t>2021-11-04 14:38:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>하락 출발 '위드코로나에 관심집중'</t>
+          <t>장중 주가 '폭등세'...왜?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['하락', '출발', '관심집중']</t>
+          <t>['장중', '주가', '왜']</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4.855491329479769</v>
+        <v>-11.56462585034014</v>
       </c>
       <c r="E43" t="n">
-        <v>-12.02312138728324</v>
+        <v>-17.91383219954649</v>
       </c>
       <c r="F43" t="n">
-        <v>-5.202312138728324</v>
+        <v>-5.215419501133787</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-10-14 15:20:00</t>
+          <t>2021-10-25 09:48:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>코로나 사멸램프 양산…연속 장중 상한가</t>
+          <t>하락 출발 '위드코로나에 관심집중'</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['코로나', '사멸램프', '장중', '상한가']</t>
+          <t>['하락', '출발', '관심집중']</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.105708245243129</v>
+        <v>4.855491329479769</v>
       </c>
       <c r="E44" t="n">
-        <v>-12.15644820295983</v>
+        <v>-12.02312138728324</v>
       </c>
       <c r="F44" t="n">
-        <v>-23.46723044397463</v>
+        <v>-5.202312138728324</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-10-14 13:31:00</t>
+          <t>2021-10-14 15:20:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>코로나19 사멸 램프 양산 소식에 '급등'</t>
+          <t>코로나 사멸램프 양산…연속 장중 상한가</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['코로나19', '사멸', '램프', '양산', '소식에']</t>
+          <t>['코로나', '사멸램프', '장중', '상한가']</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1612,12 +1612,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-10-14 09:32:00</t>
+          <t>2021-10-14 13:31:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>코로나19 사멸 램프 양산 소식에 급등세</t>
+          <t>코로나19 사멸 램프 양산 소식에 '급등'</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1638,17 +1638,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-10-14 09:27:00</t>
+          <t>2021-10-14 09:32:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20% 상승 '코로나 사멸램프 양산 시작'</t>
+          <t>코로나19 사멸 램프 양산 소식에 급등세</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['20', '상승', '사멸램프', '양산', '시작']</t>
+          <t>['코로나19', '사멸', '램프', '양산', '소식에']</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1664,17 +1664,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-10-14 09:26:00</t>
+          <t>2021-10-14 09:27:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>코로나19 사멸램프 양산 소식에 이틀연속 강세 유지</t>
+          <t>20% 상승 '코로나 사멸램프 양산 시작'</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['코로나19', '사멸램프', '양산', '소식에', '이틀연속']</t>
+          <t>['20', '상승', '사멸램프', '양산', '시작']</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1690,43 +1690,43 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-10-13 14:36:00</t>
+          <t>2021-10-14 09:26:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>코로나19 사멸램프 양산 소식에 상한가</t>
+          <t>코로나19 사멸램프 양산 소식에 이틀연속 강세 유지</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['코로나19', '사멸램프', '양산', '소식에', '상한가']</t>
+          <t>['코로나19', '사멸램프', '양산', '소식에', '이틀연속']</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29.94505494505495</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="E49" t="n">
-        <v>19.23076923076923</v>
+        <v>-12.15644820295983</v>
       </c>
       <c r="F49" t="n">
-        <v>3.296703296703297</v>
+        <v>-23.46723044397463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021-10-13 14:08:00</t>
+          <t>2021-10-13 14:36:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>코로나 사멸램프 양산 소식에 급등세</t>
+          <t>코로나19 사멸램프 양산 소식에 상한가</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['코로나', '사멸램프', '양산', '소식에', '급등세']</t>
+          <t>['코로나19', '사멸램프', '양산', '소식에', '상한가']</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1742,17 +1742,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021-10-13 14:03:00</t>
+          <t>2021-10-13 14:08:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>코로나 사멸램프 생산 소식에 상한가</t>
+          <t>코로나 사멸램프 양산 소식에 급등세</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['코로나', '사멸램프', '생산', '소식에', '상한가']</t>
+          <t>['코로나', '사멸램프', '양산', '소식에', '급등세']</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1768,17 +1768,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021-10-13 13:54:00</t>
+          <t>2021-10-13 14:03:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>30% 상한가 '코로나 사멸 램프 시제품 출시'</t>
+          <t>코로나 사멸램프 생산 소식에 상한가</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['30', '상한가', '사멸', '램프', '시제품']</t>
+          <t>['코로나', '사멸램프', '생산', '소식에', '상한가']</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1794,17 +1794,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021-10-13 13:29:00</t>
+          <t>2021-10-13 13:54:00</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>코로나 관련 제품 선보여...주가 '상승'</t>
+          <t>30% 상한가 '코로나 사멸 램프 시제품 출시'</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['코로나', '관련', '제품', '선보여', '주가']</t>
+          <t>['30', '상한가', '사멸', '램프', '시제품']</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1820,17 +1820,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021-10-13 13:17:00</t>
+          <t>2021-10-13 13:29:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>코로나 사멸램프 양산에 강세… 11%↑</t>
+          <t>코로나 관련 제품 선보여...주가 '상승'</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['코로나', '사멸램프', '양산에', '11']</t>
+          <t>['코로나', '관련', '제품', '선보여', '주가']</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1846,43 +1846,43 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021-09-30 10:55:00</t>
+          <t>2021-10-13 13:17:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8% 상승 '코로나 바이러스 박멸 램프 재조명'</t>
+          <t>코로나 사멸램프 양산에 강세… 11%↑</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['8', '상승', '바이러스', '박멸', '램프']</t>
+          <t>['코로나', '사멸램프', '양산에', '11']</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-5.633802816901409</v>
+        <v>29.94505494505495</v>
       </c>
       <c r="E55" t="n">
-        <v>-43.66197183098591</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="F55" t="n">
-        <v>-33.01056338028169</v>
+        <v>3.296703296703297</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021-09-30 10:20:00</t>
+          <t>2021-09-30 10:55:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13% 상승 '코로나 박멸 램프 출시 기대감'</t>
+          <t>8% 상승 '코로나 바이러스 박멸 램프 재조명'</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['13', '상승', '박멸', '램프', '출시']</t>
+          <t>['8', '상승', '바이러스', '박멸', '램프']</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1898,17 +1898,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021-09-30 10:00:00</t>
+          <t>2021-09-30 10:20:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>저가매수 기대감에 강세</t>
+          <t>13% 상승 '코로나 박멸 램프 출시 기대감'</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['저가매수', '기대감에', '강세']</t>
+          <t>['13', '상승', '박멸', '램프', '출시']</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1924,95 +1924,95 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021-09-16 13:36:00</t>
+          <t>2021-09-30 10:00:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>21% 강세 '신주인수권 행사·원자외선 램프 개발'</t>
+          <t>저가매수 기대감에 강세</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['21', '강세', '램프', '개발']</t>
+          <t>['저가매수', '기대감에', '강세']</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3.523809523809524</v>
+        <v>-5.633802816901409</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.85714285714286</v>
+        <v>-43.66197183098591</v>
       </c>
       <c r="F58" t="n">
-        <v>-20.85714285714286</v>
+        <v>-33.01056338028169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021-09-14 09:38:00</t>
+          <t>2021-09-16 13:36:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3% 상승 '코로나 박멸 평면램프 개발 호재'</t>
+          <t>21% 강세 '신주인수권 행사·원자외선 램프 개발'</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['3', '상승', '박멸', '평면램프', '개발']</t>
+          <t>['21', '강세', '램프', '개발']</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>3.523809523809524</v>
       </c>
       <c r="E59" t="n">
-        <v>22.80898876404494</v>
+        <v>-10.85714285714286</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3370786516853932</v>
+        <v>-20.85714285714286</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021-09-13 19:14:00</t>
+          <t>2021-09-14 09:38:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>29% 급등 '코로나19 박멸 원자외선 램프 출시 예정'</t>
+          <t>3% 상승 '코로나 박멸 평면램프 개발 호재'</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['29', '급등', '박멸', '원자외선', '램프']</t>
+          <t>['3', '상승', '박멸', '평면램프', '개발']</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-1.00111234705228</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>21.57953281423804</v>
+        <v>22.80898876404494</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.334816462736374</v>
+        <v>0.3370786516853932</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021-09-13 16:03:00</t>
+          <t>2021-09-13 19:14:00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>. 상한가 마감...3 거래일 연속 상승 행진</t>
+          <t>29% 급등 '코로나19 박멸 원자외선 램프 출시 예정'</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['상한가', '마감', '3', '거래일', '연속']</t>
+          <t>['29', '급등', '박멸', '원자외선', '램프']</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2028,17 +2028,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021-09-13 14:40:00</t>
+          <t>2021-09-13 16:03:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>주가 급등, 코로나19 박멸 기대감?</t>
+          <t>. 상한가 마감...3 거래일 연속 상승 행진</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['주가', '급등', '코로나19', '박멸', '기대감']</t>
+          <t>['상한가', '마감', '3', '거래일', '연속']</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2054,43 +2054,43 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2021-08-12 14:40:00</t>
+          <t>2021-09-13 14:40:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>주가 급등, 코로나19 바이러스 박멸 각광</t>
+          <t>주가 급등, 코로나19 박멸 기대감?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['주가', '급등', '코로나19', '바이러스', '박멸']</t>
+          <t>['주가', '급등', '코로나19', '박멸', '기대감']</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-4.347826086956522</v>
+        <v>-1.00111234705228</v>
       </c>
       <c r="E63" t="n">
-        <v>-19.34782608695652</v>
+        <v>21.57953281423804</v>
       </c>
       <c r="F63" t="n">
-        <v>50.43478260869565</v>
+        <v>-1.334816462736374</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021-08-12 10:54:00</t>
+          <t>2021-08-12 14:40:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>'투자 경고'에도 강세</t>
+          <t>주가 급등, 코로나19 바이러스 박멸 각광</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['강세']</t>
+          <t>['주가', '급등', '코로나19', '바이러스', '박멸']</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2106,17 +2106,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2021-08-12 10:07:00</t>
+          <t>2021-08-12 10:54:00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>'투자 경고'에도 연일 강세</t>
+          <t>'투자 경고'에도 강세</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['연일', '강세']</t>
+          <t>['강세']</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2132,69 +2132,69 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2021-08-11 13:52:00</t>
+          <t>2021-08-12 10:07:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>17% 상승 '원자외선 파장 기술력 논문 등재'</t>
+          <t>'투자 경고'에도 연일 강세</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['17', '상승', '파장', '기술력', '논문']</t>
+          <t>['연일', '강세']</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4.072398190045249</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.46153846153846</v>
+        <v>-19.34782608695652</v>
       </c>
       <c r="F66" t="n">
-        <v>46.15384615384615</v>
+        <v>50.43478260869565</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2021-08-09 14:36:00</t>
+          <t>2021-08-11 13:52:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>27% 강세 '원자외선 기술력 글로벌서 인정'</t>
+          <t>17% 상승 '원자외선 파장 기술력 논문 등재'</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['27', '강세', '기술력', '글로벌서', '인정']</t>
+          <t>['17', '상승', '파장', '기술력', '논문']</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.8902077151335311</v>
+        <v>4.072398190045249</v>
       </c>
       <c r="E67" t="n">
-        <v>46.88427299703264</v>
+        <v>-13.46153846153846</v>
       </c>
       <c r="F67" t="n">
-        <v>90.50445103857567</v>
+        <v>46.15384615384615</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2021-08-09 11:10:00</t>
+          <t>2021-08-09 14:36:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>코로나19 사멸 램프 개발 소식에 주가 강세</t>
+          <t>27% 강세 '원자외선 기술력 글로벌서 인정'</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['코로나19', '사멸', '램프', '개발', '소식에']</t>
+          <t>['27', '강세', '기술력', '글로벌서', '인정']</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2210,43 +2210,43 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2021-08-03 14:06:00</t>
+          <t>2021-08-09 11:10:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>코로나19 박멸 램프 미국 진출…국제학술지도 인정 친...</t>
+          <t>코로나19 사멸 램프 개발 소식에 주가 강세</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['코로나19', '박멸', '램프', '미국', '인정']</t>
+          <t>['코로나19', '사멸', '램프', '개발', '소식에']</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-0.9940357852882704</v>
+        <v>0.8902077151335311</v>
       </c>
       <c r="E69" t="n">
-        <v>35.18886679920477</v>
+        <v>46.88427299703264</v>
       </c>
       <c r="F69" t="n">
-        <v>114.7117296222664</v>
+        <v>90.50445103857567</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2021-08-03 13:32:00</t>
+          <t>2021-08-03 14:06:00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>세계최초 실내 코로나 사멸 램프 개발… 5%↑</t>
+          <t>코로나19 박멸 램프 미국 진출…국제학술지도 인정 친...</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['세계최초', '실내', '코로나', '사멸', '램프']</t>
+          <t>['코로나19', '박멸', '램프', '미국', '인정']</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2262,43 +2262,43 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2021-03-09 16:52:00</t>
+          <t>2021-08-03 13:32:00</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 시초가 대비 27% 급락</t>
+          <t>세계최초 실내 코로나 사멸 램프 개발… 5%↑</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날', '시초가', '대비']</t>
+          <t>['세계최초', '실내', '코로나', '사멸', '램프']</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-6.471816283924843</v>
+        <v>-0.9940357852882704</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.07515657620042</v>
+        <v>35.18886679920477</v>
       </c>
       <c r="F71" t="n">
-        <v>-24.63465553235908</v>
+        <v>114.7117296222664</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2021-03-09 16:11:00</t>
+          <t>2021-03-09 16:52:00</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫 날 27% 급락 마감</t>
+          <t>코스닥 상장 첫날 시초가 대비 27% 급락</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫', '날', '27']</t>
+          <t>['코스닥', '상장', '첫날', '시초가', '대비']</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2314,17 +2314,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2021-03-09 15:47:00</t>
+          <t>2021-03-09 16:11:00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>상장 첫날 27% 급락 마감</t>
+          <t>코스닥 상장 첫 날 27% 급락 마감</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '27', '급락', '마감']</t>
+          <t>['코스닥', '상장', '첫', '날', '27']</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2340,17 +2340,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021-03-09 10:37:00</t>
+          <t>2021-03-09 15:47:00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>상장 첫날 장중 15%↓...공모가는 웃돌아</t>
+          <t>상장 첫날 27% 급락 마감</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '장중', '15', '공모가는']</t>
+          <t>['상장', '첫날', '27', '급락', '마감']</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2366,17 +2366,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021-03-09 10:19:00</t>
+          <t>2021-03-09 10:37:00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫 날 약세</t>
+          <t>상장 첫날 장중 15%↓...공모가는 웃돌아</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫', '날', '약세']</t>
+          <t>['상장', '첫날', '장중', '15', '공모가는']</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2392,17 +2392,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021-03-09 09:58:00</t>
+          <t>2021-03-09 10:19:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫 날 12% 가까이 급락 중</t>
+          <t>코스닥 상장 첫 날 약세</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫', '날', '12']</t>
+          <t>['코스닥', '상장', '첫', '날', '약세']</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2418,17 +2418,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021-03-09 09:26:00</t>
+          <t>2021-03-09 09:58:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 약세…공모가는 웃돌아</t>
+          <t>코스닥 상장 첫 날 12% 가까이 급락 중</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날', '웃돌아']</t>
+          <t>['코스닥', '상장', '첫', '날', '12']</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2444,17 +2444,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2021-03-09 09:20:00</t>
+          <t>2021-03-09 09:26:00</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>상장 첫날 급락···공모가는 상회</t>
+          <t>코스닥 상장 첫날 약세…공모가는 웃돌아</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '상회']</t>
+          <t>['코스닥', '상장', '첫날', '웃돌아']</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2470,17 +2470,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2021-03-09 09:15:00</t>
+          <t>2021-03-09 09:20:00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 '약세'</t>
+          <t>상장 첫날 급락···공모가는 상회</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날']</t>
+          <t>['상장', '첫날', '상회']</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2496,17 +2496,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2021-03-09 09:13:00</t>
+          <t>2021-03-09 09:15:00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫 날 급락…공모가는 상회</t>
+          <t>코스닥 상장 첫날 '약세'</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫', '날', '상회']</t>
+          <t>['코스닥', '상장', '첫날']</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2522,17 +2522,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2021-03-09 09:09:00</t>
+          <t>2021-03-09 09:13:00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>상장 첫 날 '약세'…공모가는 웃돌아</t>
+          <t>코스닥 상장 첫 날 급락…공모가는 상회</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['상장', '첫', '날', '웃돌아']</t>
+          <t>['코스닥', '상장', '첫', '날', '상회']</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2548,17 +2548,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2021-03-09 09:07:00</t>
+          <t>2021-03-09 09:09:00</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>상장 첫 날 장 초반 혼조세</t>
+          <t>상장 첫 날 '약세'…공모가는 웃돌아</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['상장', '첫', '날', '장', '초반']</t>
+          <t>['상장', '첫', '날', '웃돌아']</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2574,17 +2574,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2021-03-09 09:05:00</t>
+          <t>2021-03-09 09:07:00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 약세…공모가는 상회</t>
+          <t>상장 첫 날 장 초반 혼조세</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날', '상회']</t>
+          <t>['상장', '첫', '날', '장', '초반']</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2594,6 +2594,32 @@
         <v>-16.07515657620042</v>
       </c>
       <c r="F83" t="n">
+        <v>-24.63465553235908</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021-03-09 09:05:00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>코스닥 상장 첫날 약세…공모가는 상회</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>['코스닥', '상장', '첫날', '상회']</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>-6.471816283924843</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-16.07515657620042</v>
+      </c>
+      <c r="F84" t="n">
         <v>-24.63465553235908</v>
       </c>
     </row>
